--- a/python_template/operate_Excel_file/納品一覧テスト.xlsx
+++ b/python_template/operate_Excel_file/納品一覧テスト.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F13D948-3899-4824-9293-29118A256AF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF6F8B0-59F5-4863-8F71-AE134C1ACFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -39,34 +39,55 @@
     <t>ファイル名</t>
   </si>
   <si>
+    <t>使用量／計器数数</t>
+  </si>
+  <si>
+    <t>電圧</t>
+  </si>
+  <si>
+    <t>順潮流／逆潮流</t>
+  </si>
+  <si>
     <t>カラム区分</t>
   </si>
   <si>
-    <t>WL12xxx</t>
-  </si>
-  <si>
-    <t>WL22xxx</t>
-  </si>
-  <si>
-    <t>WL32xxx</t>
-  </si>
-  <si>
-    <t>WG12xxx</t>
-  </si>
-  <si>
-    <t>WG23xxx</t>
-  </si>
-  <si>
-    <t>ML12xxx</t>
-  </si>
-  <si>
-    <t>ML22xxx</t>
-  </si>
-  <si>
-    <t>ML32xxx</t>
-  </si>
-  <si>
-    <t>MG12xxx</t>
+    <t>WL12-xxx.csv</t>
+  </si>
+  <si>
+    <t>WL22-xxx.csv</t>
+  </si>
+  <si>
+    <t>afterhide_WL22-xxx.csv</t>
+  </si>
+  <si>
+    <t>WL32-xxx.csv</t>
+  </si>
+  <si>
+    <t>WG12-xxx.csv</t>
+  </si>
+  <si>
+    <t>note.txt</t>
+  </si>
+  <si>
+    <t>WG23-xxx.csv</t>
+  </si>
+  <si>
+    <t>ML12-xxx.csv</t>
+  </si>
+  <si>
+    <t>ML22-xxx.csv</t>
+  </si>
+  <si>
+    <t>ML32-xxx.csv</t>
+  </si>
+  <si>
+    <t>MG12-xxx.csv</t>
+  </si>
+  <si>
+    <t>MG15-xxx.csv</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -438,15 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -456,77 +483,120 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="22:22">
+      <c r="V21" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/python_template/operate_Excel_file/納品一覧テスト.xlsx
+++ b/python_template/operate_Excel_file/納品一覧テスト.xlsx
@@ -1,111 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF6F8B0-59F5-4863-8F71-AE134C1ACFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>ファイル名</t>
-  </si>
-  <si>
-    <t>使用量／計器数数</t>
-  </si>
-  <si>
-    <t>電圧</t>
-  </si>
-  <si>
-    <t>順潮流／逆潮流</t>
-  </si>
-  <si>
-    <t>カラム区分</t>
-  </si>
-  <si>
-    <t>WL12-xxx.csv</t>
-  </si>
-  <si>
-    <t>WL22-xxx.csv</t>
-  </si>
-  <si>
-    <t>afterhide_WL22-xxx.csv</t>
-  </si>
-  <si>
-    <t>WL32-xxx.csv</t>
-  </si>
-  <si>
-    <t>WG12-xxx.csv</t>
-  </si>
-  <si>
-    <t>note.txt</t>
-  </si>
-  <si>
-    <t>WG23-xxx.csv</t>
-  </si>
-  <si>
-    <t>ML12-xxx.csv</t>
-  </si>
-  <si>
-    <t>ML22-xxx.csv</t>
-  </si>
-  <si>
-    <t>ML32-xxx.csv</t>
-  </si>
-  <si>
-    <t>MG12-xxx.csv</t>
-  </si>
-  <si>
-    <t>MG15-xxx.csv</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,145 +439,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col width="18.5" customWidth="1" min="2" max="2"/>
+    <col width="17.375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="15.375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ファイル名</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>使用量／計器数数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>電圧</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>順潮流／逆潮流</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>カラム区分</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WL12-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>使用量</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>低圧</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WL22-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>使用量</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>高圧</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>afterhide_WL22-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>使用量</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>高圧</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WL32-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>使用量</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>特高</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WG12-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>使用量</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>低圧</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>note.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WG23-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>使用量</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>高圧</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ML12-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>計器数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>低圧</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ML22-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>計器数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>高圧</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ML32-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>計器数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>特高</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MG12-xxx.csv</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>計器数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>低圧</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="15">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="22:22">
-      <c r="V21" t="s">
-        <v>18</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MG15-xxx.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
       </c>
     </row>
   </sheetData>
